--- a/config_12.7/game_activity_config.xlsx
+++ b/config_12.7/game_activity_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="297">
   <si>
     <t>line|行号</t>
   </si>
@@ -1169,18 +1169,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>火鸡腿兑奖</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩排行榜</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩排行榜</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_drop_act_nor</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1190,6 +1178,22 @@
   </si>
   <si>
     <t>充值赠礼</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球兑奖</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球排行榜</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球兑奖</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球排行榜</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1853,10 +1857,10 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5373,7 +5377,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E77" s="56" t="s">
         <v>195</v>
@@ -5420,7 +5424,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="53" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E78" s="56" t="s">
         <v>196</v>
@@ -5746,7 +5750,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F85" s="6">
         <v>1</v>
@@ -5755,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I85" s="2">
         <v>1638835200</v>
@@ -6210,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="62" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I95" s="2">
         <v>1638230400</v>
@@ -6641,7 +6645,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F105" s="6">
         <v>1</v>
@@ -6685,7 +6689,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F106" s="6">
         <v>2</v>
@@ -6904,18 +6908,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6925,14 +6925,18 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6943,13 +6947,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -6961,13 +6965,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
